--- a/Gantt Chart/Sample Data.xlsx
+++ b/Gantt Chart/Sample Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dav\OneDrive\Documents\GitHub\Deneb-Showcase\Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59C2689-D72F-4B16-8A21-F2652C404D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E3765-580E-484B-8C3C-B9C938893297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{B8EB3DE2-A242-4322-A009-17736B25473F}"/>
   </bookViews>
@@ -105,34 +105,34 @@
     <t>Deployment complete</t>
   </si>
   <si>
+    <t>Initiation complete</t>
+  </si>
+  <si>
+    <t>Design complete</t>
+  </si>
+  <si>
+    <t>Data modelling</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Stakeholder workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataviz </t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>Refresh schedule &amp; alerts</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
     <t>Requirements gathering</t>
-  </si>
-  <si>
-    <t>Initiation complete</t>
-  </si>
-  <si>
-    <t>Design complete</t>
-  </si>
-  <si>
-    <t>Data modelling</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Stakeholder workshop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dataviz </t>
-  </si>
-  <si>
-    <t>ETL</t>
-  </si>
-  <si>
-    <t>Refresh schedule &amp; alerts</t>
-  </si>
-  <si>
-    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="F4:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="F4:M22"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +556,7 @@
   <sheetData>
     <row r="4" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="4">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="4">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>19</v>
@@ -746,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>19</v>
@@ -772,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="4">
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="4">
@@ -835,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="4">
@@ -927,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="4">
@@ -1021,7 +1021,7 @@
   <sheetData>
     <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
